--- a/Data Sources/MANUAL/RenHeatEnergyFromWaste.xlsx
+++ b/Data Sources/MANUAL/RenHeatEnergyFromWaste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/ScottishEnergyStatsProcessing/Data Sources/MANUAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7571E38-0E13-4987-9D8D-F1B8AE830D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E7571E38-0E13-4987-9D8D-F1B8AE830D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{94200D47-56E5-480B-BF3C-1890BC9FBD09}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{6E1271A3-F2C3-4F6F-8BD2-847D01D72DA9}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>Energy from waste - advanced conversion technologies</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy from waste – incineration </t>
+    <t xml:space="preserve">Energy from waste - incineration </t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
